--- a/www/IndicatorsPerCountry/Mexico_GDPperCapita_TerritorialRef_1946_2012_CCode_484.xlsx
+++ b/www/IndicatorsPerCountry/Mexico_GDPperCapita_TerritorialRef_1946_2012_CCode_484.xlsx
@@ -420,13 +420,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Mexico_GDPperCapita_TerritorialRef_1946_2012_CCode_484.xlsx
+++ b/www/IndicatorsPerCountry/Mexico_GDPperCapita_TerritorialRef_1946_2012_CCode_484.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="314">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,361 +36,889 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>836.14210373</t>
+    <t>574</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>626.829709551</t>
-  </si>
-  <si>
-    <t>655.624007163</t>
-  </si>
-  <si>
-    <t>573.328106682</t>
-  </si>
-  <si>
-    <t>650.7528274</t>
-  </si>
-  <si>
-    <t>976.230411173</t>
-  </si>
-  <si>
-    <t>1093.07587231</t>
-  </si>
-  <si>
-    <t>1318.64778746</t>
-  </si>
-  <si>
-    <t>1415.4982388</t>
-  </si>
-  <si>
-    <t>1347.88550058</t>
-  </si>
-  <si>
-    <t>1482.74635361</t>
-  </si>
-  <si>
-    <t>1492.32826577</t>
-  </si>
-  <si>
-    <t>1629.67346655</t>
-  </si>
-  <si>
-    <t>1594.25580274</t>
-  </si>
-  <si>
-    <t>1669.05151267</t>
-  </si>
-  <si>
-    <t>1649.29900243</t>
-  </si>
-  <si>
-    <t>1680.0026672</t>
-  </si>
-  <si>
-    <t>1693.53333333</t>
-  </si>
-  <si>
-    <t>1706.73782522</t>
-  </si>
-  <si>
-    <t>1718.29105474</t>
-  </si>
-  <si>
-    <t>1731.52972612</t>
-  </si>
-  <si>
-    <t>1744.31818182</t>
-  </si>
-  <si>
-    <t>1757.19063545</t>
-  </si>
-  <si>
-    <t>1770.14725569</t>
-  </si>
-  <si>
-    <t>1783.25519089</t>
-  </si>
-  <si>
-    <t>1796.44772118</t>
-  </si>
-  <si>
-    <t>1809.72501677</t>
-  </si>
-  <si>
-    <t>1823.08724832</t>
-  </si>
-  <si>
-    <t>1835.91809332</t>
-  </si>
-  <si>
-    <t>1850.35362549</t>
-  </si>
-  <si>
-    <t>1884.10229713</t>
-  </si>
-  <si>
-    <t>1825.03683772</t>
-  </si>
-  <si>
-    <t>1908.03582692</t>
-  </si>
-  <si>
-    <t>1991.18176737</t>
-  </si>
-  <si>
-    <t>1874.78601125</t>
-  </si>
-  <si>
-    <t>1856.73869861</t>
-  </si>
-  <si>
-    <t>1757.21481481</t>
-  </si>
-  <si>
-    <t>1617.87481805</t>
-  </si>
-  <si>
-    <t>1643.02059497</t>
-  </si>
-  <si>
-    <t>1372.51264755</t>
-  </si>
-  <si>
-    <t>1501.02125311</t>
-  </si>
-  <si>
-    <t>1573.92247221</t>
-  </si>
-  <si>
-    <t>1660.34822427</t>
-  </si>
-  <si>
-    <t>1768.43487395</t>
-  </si>
-  <si>
-    <t>1795.86990191</t>
-  </si>
-  <si>
-    <t>1794.26541487</t>
-  </si>
-  <si>
-    <t>1858.03362099</t>
-  </si>
-  <si>
-    <t>1851.95900554</t>
-  </si>
-  <si>
-    <t>1949.46313529</t>
-  </si>
-  <si>
-    <t>2032.04532788</t>
-  </si>
-  <si>
-    <t>2051.38983051</t>
-  </si>
-  <si>
-    <t>2159.49678895</t>
-  </si>
-  <si>
-    <t>2133.83071995</t>
-  </si>
-  <si>
-    <t>2210.58452464</t>
-  </si>
-  <si>
-    <t>2221.43937585</t>
-  </si>
-  <si>
-    <t>2247.94986848</t>
-  </si>
-  <si>
-    <t>2304.36416945</t>
-  </si>
-  <si>
-    <t>2365.01928371</t>
-  </si>
-  <si>
-    <t>2477.38318593</t>
-  </si>
-  <si>
-    <t>2503.98773341</t>
-  </si>
-  <si>
-    <t>2439.08734796</t>
-  </si>
-  <si>
-    <t>2605.14113768</t>
-  </si>
-  <si>
-    <t>2742.40011681</t>
-  </si>
-  <si>
-    <t>2842.81871447</t>
-  </si>
-  <si>
-    <t>2964.74012059</t>
-  </si>
-  <si>
-    <t>3025.09922333</t>
-  </si>
-  <si>
-    <t>3016.43791095</t>
-  </si>
-  <si>
-    <t>3155.20261866</t>
-  </si>
-  <si>
-    <t>3172.11242128</t>
-  </si>
-  <si>
-    <t>3210.94921548</t>
-  </si>
-  <si>
-    <t>3342.55826848</t>
-  </si>
-  <si>
-    <t>3593.68423337</t>
-  </si>
-  <si>
-    <t>3701.97427921</t>
-  </si>
-  <si>
-    <t>3812.5325649</t>
-  </si>
-  <si>
-    <t>3922.40457081</t>
-  </si>
-  <si>
-    <t>4072.57420984</t>
-  </si>
-  <si>
-    <t>4185.48456017</t>
-  </si>
-  <si>
-    <t>4319.64599708</t>
-  </si>
-  <si>
-    <t>4364.88746161</t>
-  </si>
-  <si>
-    <t>4601.93353514</t>
-  </si>
-  <si>
-    <t>4852.59012223</t>
-  </si>
-  <si>
-    <t>5012.78363849</t>
-  </si>
-  <si>
-    <t>5158.34022009</t>
-  </si>
-  <si>
-    <t>5243.767097</t>
-  </si>
-  <si>
-    <t>5293.27363611</t>
-  </si>
-  <si>
-    <t>5595.13685297</t>
-  </si>
-  <si>
-    <t>5967.5684321</t>
-  </si>
-  <si>
-    <t>6320.39405579</t>
-  </si>
-  <si>
-    <t>6716.83507657</t>
-  </si>
-  <si>
-    <t>6513.72294241</t>
-  </si>
-  <si>
-    <t>6087.57445063</t>
-  </si>
-  <si>
-    <t>6162.45537535</t>
-  </si>
-  <si>
-    <t>6194.11474102</t>
-  </si>
-  <si>
-    <t>5834.2787188</t>
-  </si>
-  <si>
-    <t>5817.94185832</t>
-  </si>
-  <si>
-    <t>5770.87943364</t>
-  </si>
-  <si>
-    <t>5898.83248058</t>
-  </si>
-  <si>
-    <t>6084.91096543</t>
-  </si>
-  <si>
-    <t>6226.38797531</t>
-  </si>
-  <si>
-    <t>6333.47096272</t>
-  </si>
-  <si>
-    <t>6339.15299913</t>
-  </si>
-  <si>
-    <t>6503.91349046</t>
-  </si>
-  <si>
-    <t>6001.46887905</t>
-  </si>
-  <si>
-    <t>6209.2466857</t>
-  </si>
-  <si>
-    <t>6526.26936816</t>
-  </si>
-  <si>
-    <t>6753.8573313</t>
-  </si>
-  <si>
-    <t>6915.79233217</t>
-  </si>
-  <si>
-    <t>7274.99278971</t>
-  </si>
-  <si>
-    <t>7177.7642509</t>
-  </si>
-  <si>
-    <t>7146.14812871</t>
-  </si>
-  <si>
-    <t>7159.00557724</t>
-  </si>
-  <si>
-    <t>7362.2191169</t>
-  </si>
-  <si>
-    <t>7514.34621842</t>
-  </si>
-  <si>
-    <t>7802.88810942</t>
-  </si>
-  <si>
-    <t>7972.48651782</t>
-  </si>
-  <si>
-    <t>7977.50651628</t>
-  </si>
-  <si>
-    <t>7391.75909317</t>
-  </si>
-  <si>
-    <t>7715.66502941</t>
+    <t>606</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>767</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>821</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>853</t>
+  </si>
+  <si>
+    <t>867</t>
+  </si>
+  <si>
+    <t>891</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>936</t>
+  </si>
+  <si>
+    <t>964</t>
+  </si>
+  <si>
+    <t>976</t>
+  </si>
+  <si>
+    <t>979</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>987</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>1079</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>1152</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>1146</t>
+  </si>
+  <si>
+    <t>1172</t>
+  </si>
+  <si>
+    <t>1164</t>
+  </si>
+  <si>
+    <t>1167</t>
+  </si>
+  <si>
+    <t>1165</t>
+  </si>
+  <si>
+    <t>1168</t>
+  </si>
+  <si>
+    <t>1162</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>1181</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>1176</t>
+  </si>
+  <si>
+    <t>1216</t>
+  </si>
+  <si>
+    <t>1278</t>
+  </si>
+  <si>
+    <t>1336</t>
+  </si>
+  <si>
+    <t>1379</t>
+  </si>
+  <si>
+    <t>1388</t>
+  </si>
+  <si>
+    <t>1406</t>
+  </si>
+  <si>
+    <t>1428</t>
+  </si>
+  <si>
+    <t>1451</t>
+  </si>
+  <si>
+    <t>1457</t>
+  </si>
+  <si>
+    <t>1466</t>
+  </si>
+  <si>
+    <t>1474</t>
+  </si>
+  <si>
+    <t>1449</t>
+  </si>
+  <si>
+    <t>1396</t>
+  </si>
+  <si>
+    <t>1350</t>
+  </si>
+  <si>
+    <t>1326</t>
+  </si>
+  <si>
+    <t>1318</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>1256</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>1258</t>
+  </si>
+  <si>
+    <t>1274</t>
+  </si>
+  <si>
+    <t>1269</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>1267</t>
+  </si>
+  <si>
+    <t>1304</t>
+  </si>
+  <si>
+    <t>1376</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>1380</t>
+  </si>
+  <si>
+    <t>1393</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>1443</t>
+  </si>
+  <si>
+    <t>1476</t>
+  </si>
+  <si>
+    <t>1498</t>
+  </si>
+  <si>
+    <t>1541</t>
+  </si>
+  <si>
+    <t>1564</t>
+  </si>
+  <si>
+    <t>1538</t>
+  </si>
+  <si>
+    <t>1478</t>
+  </si>
+  <si>
+    <t>1465</t>
+  </si>
+  <si>
+    <t>1431</t>
+  </si>
+  <si>
+    <t>1441</t>
+  </si>
+  <si>
+    <t>1490</t>
+  </si>
+  <si>
+    <t>1516</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>1525</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>1529</t>
+  </si>
+  <si>
+    <t>1537</t>
+  </si>
+  <si>
+    <t>1557</t>
+  </si>
+  <si>
+    <t>1522</t>
+  </si>
+  <si>
+    <t>1384</t>
+  </si>
+  <si>
+    <t>1355</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>1339</t>
+  </si>
+  <si>
+    <t>1334</t>
+  </si>
+  <si>
+    <t>1321</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>1328</t>
+  </si>
+  <si>
+    <t>1353</t>
+  </si>
+  <si>
+    <t>1358</t>
+  </si>
+  <si>
+    <t>1329</t>
+  </si>
+  <si>
+    <t>1309</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>1307</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>1305</t>
+  </si>
+  <si>
+    <t>1277</t>
+  </si>
+  <si>
+    <t>1253</t>
+  </si>
+  <si>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>1254</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>1296</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>1454</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>1486</t>
+  </si>
+  <si>
+    <t>1487</t>
+  </si>
+  <si>
+    <t>1417</t>
+  </si>
+  <si>
+    <t>1392</t>
+  </si>
+  <si>
+    <t>1390</t>
+  </si>
+  <si>
+    <t>1404</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>1369</t>
+  </si>
+  <si>
+    <t>1433</t>
+  </si>
+  <si>
+    <t>1439</t>
+  </si>
+  <si>
+    <t>1446</t>
+  </si>
+  <si>
+    <t>1447</t>
+  </si>
+  <si>
+    <t>1470</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>1423</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>1294</t>
+  </si>
+  <si>
+    <t>1298</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>1374</t>
+  </si>
+  <si>
+    <t>1385</t>
+  </si>
+  <si>
+    <t>1356</t>
+  </si>
+  <si>
+    <t>1341</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>1264</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1143</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>1044</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1054</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>1568</t>
+  </si>
+  <si>
+    <t>1757</t>
+  </si>
+  <si>
+    <t>1785</t>
+  </si>
+  <si>
+    <t>1878</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1835</t>
+  </si>
+  <si>
+    <t>1822</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>1796</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>2177</t>
+  </si>
+  <si>
+    <t>2130</t>
+  </si>
+  <si>
+    <t>2232</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2244</t>
+  </si>
+  <si>
+    <t>2240</t>
+  </si>
+  <si>
+    <t>2150</t>
+  </si>
+  <si>
+    <t>2131</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2399</t>
+  </si>
+  <si>
+    <t>2552</t>
+  </si>
+  <si>
+    <t>2542</t>
+  </si>
+  <si>
+    <t>2562</t>
+  </si>
+  <si>
+    <t>2608</t>
+  </si>
+  <si>
+    <t>2523</t>
+  </si>
+  <si>
+    <t>2640</t>
+  </si>
+  <si>
+    <t>2756</t>
+  </si>
+  <si>
+    <t>2590</t>
+  </si>
+  <si>
+    <t>2565</t>
+  </si>
+  <si>
+    <t>2424</t>
+  </si>
+  <si>
+    <t>2233</t>
+  </si>
+  <si>
+    <t>2268</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>2071</t>
+  </si>
+  <si>
+    <t>2176</t>
+  </si>
+  <si>
+    <t>2299</t>
+  </si>
+  <si>
+    <t>2444</t>
+  </si>
+  <si>
+    <t>2482</t>
+  </si>
+  <si>
+    <t>2479</t>
+  </si>
+  <si>
+    <t>2570</t>
+  </si>
+  <si>
+    <t>2560</t>
+  </si>
+  <si>
+    <t>2738</t>
+  </si>
+  <si>
+    <t>2817</t>
+  </si>
+  <si>
+    <t>2844</t>
+  </si>
+  <si>
+    <t>2998</t>
+  </si>
+  <si>
+    <t>3009</t>
+  </si>
+  <si>
+    <t>3124</t>
+  </si>
+  <si>
+    <t>3145</t>
+  </si>
+  <si>
+    <t>3188</t>
+  </si>
+  <si>
+    <t>3276</t>
+  </si>
+  <si>
+    <t>3510</t>
+  </si>
+  <si>
+    <t>3673</t>
+  </si>
+  <si>
+    <t>3706</t>
+  </si>
+  <si>
+    <t>3602</t>
+  </si>
+  <si>
+    <t>3851</t>
+  </si>
+  <si>
+    <t>4060</t>
+  </si>
+  <si>
+    <t>4213</t>
+  </si>
+  <si>
+    <t>4403</t>
+  </si>
+  <si>
+    <t>4501</t>
+  </si>
+  <si>
+    <t>4497</t>
+  </si>
+  <si>
+    <t>4723</t>
+  </si>
+  <si>
+    <t>4807</t>
+  </si>
+  <si>
+    <t>4881</t>
+  </si>
+  <si>
+    <t>5118</t>
+  </si>
+  <si>
+    <t>5555</t>
+  </si>
+  <si>
+    <t>5737</t>
+  </si>
+  <si>
+    <t>5950</t>
+  </si>
+  <si>
+    <t>6132</t>
+  </si>
+  <si>
+    <t>6432</t>
+  </si>
+  <si>
+    <t>6629</t>
+  </si>
+  <si>
+    <t>6873</t>
+  </si>
+  <si>
+    <t>6912</t>
+  </si>
+  <si>
+    <t>7256</t>
+  </si>
+  <si>
+    <t>7597</t>
+  </si>
+  <si>
+    <t>7801</t>
+  </si>
+  <si>
+    <t>8011</t>
+  </si>
+  <si>
+    <t>8131</t>
+  </si>
+  <si>
+    <t>8177</t>
+  </si>
+  <si>
+    <t>8690</t>
+  </si>
+  <si>
+    <t>9307</t>
+  </si>
+  <si>
+    <t>9929</t>
+  </si>
+  <si>
+    <t>10538</t>
+  </si>
+  <si>
+    <t>10240</t>
+  </si>
+  <si>
+    <t>9656</t>
+  </si>
+  <si>
+    <t>9777</t>
+  </si>
+  <si>
+    <t>9785</t>
+  </si>
+  <si>
+    <t>9283</t>
+  </si>
+  <si>
+    <t>9256</t>
+  </si>
+  <si>
+    <t>9193</t>
+  </si>
+  <si>
+    <t>9392</t>
+  </si>
+  <si>
+    <t>9699</t>
+  </si>
+  <si>
+    <t>10008.5507440206</t>
+  </si>
+  <si>
+    <t>10262.2106803239</t>
+  </si>
+  <si>
+    <t>10357.8290665121</t>
+  </si>
+  <si>
+    <t>10721.0082312588</t>
+  </si>
+  <si>
+    <t>9944.95271764715</t>
+  </si>
+  <si>
+    <t>10386.4991208587</t>
+  </si>
+  <si>
+    <t>11030.3431869993</t>
+  </si>
+  <si>
+    <t>11510.8773969856</t>
+  </si>
+  <si>
+    <t>11894.2028489124</t>
+  </si>
+  <si>
+    <t>12613.3960519094</t>
+  </si>
+  <si>
+    <t>12565.4651720556</t>
+  </si>
+  <si>
+    <t>12645.5035832451</t>
+  </si>
+  <si>
+    <t>12793.9556189455</t>
+  </si>
+  <si>
+    <t>13287.5999017971</t>
+  </si>
+  <si>
+    <t>13655.8011574628</t>
+  </si>
+  <si>
+    <t>14287.5582684683</t>
+  </si>
+  <si>
+    <t>14684.7279561377</t>
+  </si>
+  <si>
+    <t>14808.0899633769</t>
+  </si>
+  <si>
+    <t>14026.9889625081</t>
+  </si>
+  <si>
+    <t>14697.2981108457</t>
+  </si>
+  <si>
+    <t>15210</t>
+  </si>
+  <si>
+    <t>15639</t>
+  </si>
+  <si>
+    <t>15680</t>
+  </si>
+  <si>
+    <t>15856</t>
+  </si>
+  <si>
+    <t>16096</t>
+  </si>
+  <si>
+    <t>16133</t>
   </si>
   <si>
     <t>Description</t>
@@ -505,7 +1033,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1800.0</v>
+        <v>1550.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -522,7 +1050,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1801.0</v>
+        <v>1551.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -539,7 +1067,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1802.0</v>
+        <v>1552.0</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -556,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1803.0</v>
+        <v>1553.0</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -573,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1804.0</v>
+        <v>1554.0</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -590,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1805.0</v>
+        <v>1555.0</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -607,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1806.0</v>
+        <v>1556.0</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -624,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1807.0</v>
+        <v>1557.0</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -641,7 +1169,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1808.0</v>
+        <v>1558.0</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -658,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1809.0</v>
+        <v>1559.0</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -675,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1810.0</v>
+        <v>1560.0</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -692,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1811.0</v>
+        <v>1561.0</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -709,7 +1237,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1812.0</v>
+        <v>1562.0</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -726,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1813.0</v>
+        <v>1563.0</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -743,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1814.0</v>
+        <v>1564.0</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -760,7 +1288,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1815.0</v>
+        <v>1565.0</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -777,7 +1305,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1816.0</v>
+        <v>1566.0</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -794,7 +1322,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1817.0</v>
+        <v>1567.0</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -811,7 +1339,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1818.0</v>
+        <v>1568.0</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -828,7 +1356,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1819.0</v>
+        <v>1569.0</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -845,7 +1373,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1820.0</v>
+        <v>1570.0</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -862,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1821.0</v>
+        <v>1571.0</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -879,7 +1407,7 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1822.0</v>
+        <v>1572.0</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -896,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1823.0</v>
+        <v>1573.0</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -913,7 +1441,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1824.0</v>
+        <v>1574.0</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -930,7 +1458,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1825.0</v>
+        <v>1575.0</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -947,7 +1475,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1826.0</v>
+        <v>1576.0</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -964,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1827.0</v>
+        <v>1577.0</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -981,7 +1509,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1828.0</v>
+        <v>1578.0</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -998,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1829.0</v>
+        <v>1579.0</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -1015,7 +1543,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1830.0</v>
+        <v>1580.0</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -1032,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1831.0</v>
+        <v>1581.0</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -1049,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1832.0</v>
+        <v>1582.0</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1066,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1833.0</v>
+        <v>1583.0</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -1083,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1834.0</v>
+        <v>1584.0</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
@@ -1100,7 +1628,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1835.0</v>
+        <v>1585.0</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1117,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1836.0</v>
+        <v>1586.0</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -1134,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1837.0</v>
+        <v>1587.0</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -1151,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1838.0</v>
+        <v>1588.0</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1168,7 +1696,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1839.0</v>
+        <v>1589.0</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1185,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1840.0</v>
+        <v>1590.0</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
@@ -1202,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1841.0</v>
+        <v>1591.0</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1219,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1842.0</v>
+        <v>1592.0</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
@@ -1236,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1843.0</v>
+        <v>1593.0</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1253,7 +1781,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1844.0</v>
+        <v>1594.0</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -1270,10 +1798,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1845.0</v>
+        <v>1595.0</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -1287,10 +1815,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1846.0</v>
+        <v>1596.0</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -1304,10 +1832,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1847.0</v>
+        <v>1597.0</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -1321,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1848.0</v>
+        <v>1598.0</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -1338,10 +1866,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1849.0</v>
+        <v>1599.0</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -1355,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1850.0</v>
+        <v>1600.0</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -1372,10 +1900,10 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>1851.0</v>
+        <v>1601.0</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -1389,10 +1917,10 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1852.0</v>
+        <v>1602.0</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
@@ -1406,10 +1934,10 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>1853.0</v>
+        <v>1603.0</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -1423,10 +1951,10 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>1854.0</v>
+        <v>1604.0</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
@@ -1440,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>1855.0</v>
+        <v>1605.0</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -1457,10 +1985,10 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>1856.0</v>
+        <v>1606.0</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
@@ -1474,10 +2002,10 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>1857.0</v>
+        <v>1607.0</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
@@ -1491,10 +2019,10 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>1858.0</v>
+        <v>1608.0</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61">
@@ -1508,10 +2036,10 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>1859.0</v>
+        <v>1609.0</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
@@ -1525,10 +2053,10 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>1860.0</v>
+        <v>1610.0</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
@@ -1542,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>1861.0</v>
+        <v>1611.0</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
@@ -1559,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>1862.0</v>
+        <v>1612.0</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
@@ -1576,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>1863.0</v>
+        <v>1613.0</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
@@ -1593,10 +2121,10 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>1864.0</v>
+        <v>1614.0</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -1610,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>1865.0</v>
+        <v>1615.0</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
@@ -1627,10 +2155,10 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>1866.0</v>
+        <v>1616.0</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
@@ -1644,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>1867.0</v>
+        <v>1617.0</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -1661,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1868.0</v>
+        <v>1618.0</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -1678,10 +2206,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>1869.0</v>
+        <v>1619.0</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
@@ -1695,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>1870.0</v>
+        <v>1620.0</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
@@ -1712,10 +2240,10 @@
         <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>1871.0</v>
+        <v>1621.0</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
@@ -1729,10 +2257,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>1872.0</v>
+        <v>1622.0</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75">
@@ -1746,10 +2274,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>1873.0</v>
+        <v>1623.0</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76">
@@ -1763,10 +2291,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>1874.0</v>
+        <v>1624.0</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77">
@@ -1780,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>1875.0</v>
+        <v>1625.0</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78">
@@ -1797,10 +2325,10 @@
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>1876.0</v>
+        <v>1626.0</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
@@ -1814,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>1877.0</v>
+        <v>1627.0</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80">
@@ -1831,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>1878.0</v>
+        <v>1628.0</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81">
@@ -1848,10 +2376,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>1879.0</v>
+        <v>1629.0</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82">
@@ -1865,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>1880.0</v>
+        <v>1630.0</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83">
@@ -1882,10 +2410,10 @@
         <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>1881.0</v>
+        <v>1631.0</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84">
@@ -1899,10 +2427,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>1882.0</v>
+        <v>1632.0</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85">
@@ -1916,10 +2444,10 @@
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>1883.0</v>
+        <v>1633.0</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86">
@@ -1933,10 +2461,10 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>1884.0</v>
+        <v>1634.0</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87">
@@ -1950,10 +2478,10 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>1885.0</v>
+        <v>1635.0</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
@@ -1967,10 +2495,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>1886.0</v>
+        <v>1636.0</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89">
@@ -1984,10 +2512,10 @@
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>1887.0</v>
+        <v>1637.0</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90">
@@ -2001,10 +2529,10 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>1888.0</v>
+        <v>1638.0</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91">
@@ -2018,10 +2546,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>1889.0</v>
+        <v>1639.0</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92">
@@ -2035,10 +2563,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>1890.0</v>
+        <v>1640.0</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93">
@@ -2052,10 +2580,10 @@
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>1891.0</v>
+        <v>1641.0</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94">
@@ -2069,10 +2597,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>1892.0</v>
+        <v>1642.0</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95">
@@ -2086,10 +2614,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>1893.0</v>
+        <v>1643.0</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96">
@@ -2103,10 +2631,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>1894.0</v>
+        <v>1644.0</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97">
@@ -2120,10 +2648,10 @@
         <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>1895.0</v>
+        <v>1645.0</v>
       </c>
       <c r="E97" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98">
@@ -2137,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>1896.0</v>
+        <v>1646.0</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99">
@@ -2154,10 +2682,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>1897.0</v>
+        <v>1647.0</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100">
@@ -2171,10 +2699,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>1898.0</v>
+        <v>1648.0</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101">
@@ -2188,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>1899.0</v>
+        <v>1649.0</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102">
@@ -2205,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>1900.0</v>
+        <v>1650.0</v>
       </c>
       <c r="E102" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103">
@@ -2222,10 +2750,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>1901.0</v>
+        <v>1651.0</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104">
@@ -2239,10 +2767,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>1902.0</v>
+        <v>1652.0</v>
       </c>
       <c r="E104" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105">
@@ -2256,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>1903.0</v>
+        <v>1653.0</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106">
@@ -2273,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>1904.0</v>
+        <v>1654.0</v>
       </c>
       <c r="E106" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107">
@@ -2290,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>1905.0</v>
+        <v>1655.0</v>
       </c>
       <c r="E107" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108">
@@ -2307,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>1906.0</v>
+        <v>1656.0</v>
       </c>
       <c r="E108" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109">
@@ -2324,10 +2852,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>1907.0</v>
+        <v>1657.0</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110">
@@ -2341,10 +2869,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>1908.0</v>
+        <v>1658.0</v>
       </c>
       <c r="E110" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111">
@@ -2358,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>1909.0</v>
+        <v>1659.0</v>
       </c>
       <c r="E111" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112">
@@ -2375,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>1910.0</v>
+        <v>1660.0</v>
       </c>
       <c r="E112" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113">
@@ -2392,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>1911.0</v>
+        <v>1661.0</v>
       </c>
       <c r="E113" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114">
@@ -2409,10 +2937,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>1912.0</v>
+        <v>1662.0</v>
       </c>
       <c r="E114" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115">
@@ -2426,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>1913.0</v>
+        <v>1663.0</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116">
@@ -2443,10 +2971,10 @@
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>1914.0</v>
+        <v>1664.0</v>
       </c>
       <c r="E116" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117">
@@ -2460,10 +2988,10 @@
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>1915.0</v>
+        <v>1665.0</v>
       </c>
       <c r="E117" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118">
@@ -2477,10 +3005,10 @@
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>1916.0</v>
+        <v>1666.0</v>
       </c>
       <c r="E118" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119">
@@ -2494,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>1917.0</v>
+        <v>1667.0</v>
       </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120">
@@ -2511,10 +3039,10 @@
         <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>1918.0</v>
+        <v>1668.0</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121">
@@ -2528,10 +3056,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>1919.0</v>
+        <v>1669.0</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122">
@@ -2545,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>1920.0</v>
+        <v>1670.0</v>
       </c>
       <c r="E122" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123">
@@ -2562,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>1921.0</v>
+        <v>1671.0</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124">
@@ -2579,10 +3107,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>1922.0</v>
+        <v>1672.0</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125">
@@ -2596,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>1923.0</v>
+        <v>1673.0</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126">
@@ -2613,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>1924.0</v>
+        <v>1674.0</v>
       </c>
       <c r="E126" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127">
@@ -2630,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>1925.0</v>
+        <v>1675.0</v>
       </c>
       <c r="E127" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128">
@@ -2647,10 +3175,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>1926.0</v>
+        <v>1676.0</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129">
@@ -2664,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>1927.0</v>
+        <v>1677.0</v>
       </c>
       <c r="E129" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130">
@@ -2681,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>1928.0</v>
+        <v>1678.0</v>
       </c>
       <c r="E130" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131">
@@ -2698,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>1929.0</v>
+        <v>1679.0</v>
       </c>
       <c r="E131" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="132">
@@ -2715,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>1930.0</v>
+        <v>1680.0</v>
       </c>
       <c r="E132" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133">
@@ -2732,10 +3260,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>1931.0</v>
+        <v>1681.0</v>
       </c>
       <c r="E133" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="134">
@@ -2749,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>1932.0</v>
+        <v>1682.0</v>
       </c>
       <c r="E134" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135">
@@ -2766,10 +3294,10 @@
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>1933.0</v>
+        <v>1683.0</v>
       </c>
       <c r="E135" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136">
@@ -2783,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>1934.0</v>
+        <v>1684.0</v>
       </c>
       <c r="E136" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137">
@@ -2800,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>1935.0</v>
+        <v>1685.0</v>
       </c>
       <c r="E137" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="138">
@@ -2817,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>1936.0</v>
+        <v>1686.0</v>
       </c>
       <c r="E138" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="139">
@@ -2834,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>1937.0</v>
+        <v>1687.0</v>
       </c>
       <c r="E139" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
     </row>
     <row r="140">
@@ -2851,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>1938.0</v>
+        <v>1688.0</v>
       </c>
       <c r="E140" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141">
@@ -2868,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>1939.0</v>
+        <v>1689.0</v>
       </c>
       <c r="E141" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
     </row>
     <row r="142">
@@ -2885,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>1940.0</v>
+        <v>1690.0</v>
       </c>
       <c r="E142" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="143">
@@ -2902,10 +3430,10 @@
         <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>1941.0</v>
+        <v>1691.0</v>
       </c>
       <c r="E143" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144">
@@ -2919,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>1942.0</v>
+        <v>1692.0</v>
       </c>
       <c r="E144" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="145">
@@ -2936,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>1943.0</v>
+        <v>1693.0</v>
       </c>
       <c r="E145" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146">
@@ -2953,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>1944.0</v>
+        <v>1694.0</v>
       </c>
       <c r="E146" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147">
@@ -2970,10 +3498,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>1945.0</v>
+        <v>1695.0</v>
       </c>
       <c r="E147" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="148">
@@ -2987,10 +3515,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>1946.0</v>
+        <v>1696.0</v>
       </c>
       <c r="E148" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="149">
@@ -3004,10 +3532,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>1947.0</v>
+        <v>1697.0</v>
       </c>
       <c r="E149" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="150">
@@ -3021,10 +3549,10 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>1948.0</v>
+        <v>1698.0</v>
       </c>
       <c r="E150" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="151">
@@ -3038,10 +3566,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>1949.0</v>
+        <v>1699.0</v>
       </c>
       <c r="E151" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="152">
@@ -3055,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>1950.0</v>
+        <v>1700.0</v>
       </c>
       <c r="E152" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153">
@@ -3072,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>1951.0</v>
+        <v>1701.0</v>
       </c>
       <c r="E153" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
     </row>
     <row r="154">
@@ -3089,10 +3617,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>1952.0</v>
+        <v>1702.0</v>
       </c>
       <c r="E154" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155">
@@ -3106,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>1953.0</v>
+        <v>1703.0</v>
       </c>
       <c r="E155" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
     </row>
     <row r="156">
@@ -3123,10 +3651,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>1954.0</v>
+        <v>1704.0</v>
       </c>
       <c r="E156" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="157">
@@ -3140,10 +3668,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>1955.0</v>
+        <v>1705.0</v>
       </c>
       <c r="E157" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="158">
@@ -3157,10 +3685,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>1956.0</v>
+        <v>1706.0</v>
       </c>
       <c r="E158" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="159">
@@ -3174,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>1957.0</v>
+        <v>1707.0</v>
       </c>
       <c r="E159" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="160">
@@ -3191,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>1958.0</v>
+        <v>1708.0</v>
       </c>
       <c r="E160" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="161">
@@ -3208,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>1959.0</v>
+        <v>1709.0</v>
       </c>
       <c r="E161" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="162">
@@ -3225,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>1960.0</v>
+        <v>1710.0</v>
       </c>
       <c r="E162" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="163">
@@ -3242,10 +3770,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>1961.0</v>
+        <v>1711.0</v>
       </c>
       <c r="E163" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
     <row r="164">
@@ -3259,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>1962.0</v>
+        <v>1712.0</v>
       </c>
       <c r="E164" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
     </row>
     <row r="165">
@@ -3276,10 +3804,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>1963.0</v>
+        <v>1713.0</v>
       </c>
       <c r="E165" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="166">
@@ -3293,10 +3821,10 @@
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>1964.0</v>
+        <v>1714.0</v>
       </c>
       <c r="E166" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="167">
@@ -3310,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>1965.0</v>
+        <v>1715.0</v>
       </c>
       <c r="E167" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
     </row>
     <row r="168">
@@ -3327,10 +3855,10 @@
         <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>1966.0</v>
+        <v>1716.0</v>
       </c>
       <c r="E168" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="169">
@@ -3344,10 +3872,10 @@
         <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>1967.0</v>
+        <v>1717.0</v>
       </c>
       <c r="E169" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="170">
@@ -3361,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>1968.0</v>
+        <v>1718.0</v>
       </c>
       <c r="E170" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="171">
@@ -3378,10 +3906,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>1969.0</v>
+        <v>1719.0</v>
       </c>
       <c r="E171" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="172">
@@ -3395,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>1970.0</v>
+        <v>1720.0</v>
       </c>
       <c r="E172" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="173">
@@ -3412,10 +3940,10 @@
         <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>1971.0</v>
+        <v>1721.0</v>
       </c>
       <c r="E173" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="174">
@@ -3429,10 +3957,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>1972.0</v>
+        <v>1722.0</v>
       </c>
       <c r="E174" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="175">
@@ -3446,10 +3974,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>1973.0</v>
+        <v>1723.0</v>
       </c>
       <c r="E175" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="176">
@@ -3463,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>1974.0</v>
+        <v>1724.0</v>
       </c>
       <c r="E176" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="177">
@@ -3480,10 +4008,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>1975.0</v>
+        <v>1725.0</v>
       </c>
       <c r="E177" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="178">
@@ -3497,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>1976.0</v>
+        <v>1726.0</v>
       </c>
       <c r="E178" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="179">
@@ -3514,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>1977.0</v>
+        <v>1727.0</v>
       </c>
       <c r="E179" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="180">
@@ -3531,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>1978.0</v>
+        <v>1728.0</v>
       </c>
       <c r="E180" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="181">
@@ -3548,10 +4076,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>1979.0</v>
+        <v>1729.0</v>
       </c>
       <c r="E181" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
     <row r="182">
@@ -3565,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>1980.0</v>
+        <v>1730.0</v>
       </c>
       <c r="E182" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="183">
@@ -3582,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>1981.0</v>
+        <v>1731.0</v>
       </c>
       <c r="E183" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="184">
@@ -3599,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>1982.0</v>
+        <v>1732.0</v>
       </c>
       <c r="E184" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
     <row r="185">
@@ -3616,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>1983.0</v>
+        <v>1733.0</v>
       </c>
       <c r="E185" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="186">
@@ -3633,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>1984.0</v>
+        <v>1734.0</v>
       </c>
       <c r="E186" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="187">
@@ -3650,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>1985.0</v>
+        <v>1735.0</v>
       </c>
       <c r="E187" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="188">
@@ -3667,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>1986.0</v>
+        <v>1736.0</v>
       </c>
       <c r="E188" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="189">
@@ -3684,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>1987.0</v>
+        <v>1737.0</v>
       </c>
       <c r="E189" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="190">
@@ -3701,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>1988.0</v>
+        <v>1738.0</v>
       </c>
       <c r="E190" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="191">
@@ -3718,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>1989.0</v>
+        <v>1739.0</v>
       </c>
       <c r="E191" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="192">
@@ -3735,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>1990.0</v>
+        <v>1740.0</v>
       </c>
       <c r="E192" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="193">
@@ -3752,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>1991.0</v>
+        <v>1741.0</v>
       </c>
       <c r="E193" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
     </row>
     <row r="194">
@@ -3769,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>1992.0</v>
+        <v>1742.0</v>
       </c>
       <c r="E194" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
     </row>
     <row r="195">
@@ -3786,10 +4314,10 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>1993.0</v>
+        <v>1743.0</v>
       </c>
       <c r="E195" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="196">
@@ -3803,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>1994.0</v>
+        <v>1744.0</v>
       </c>
       <c r="E196" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="197">
@@ -3820,10 +4348,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>1995.0</v>
+        <v>1745.0</v>
       </c>
       <c r="E197" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="198">
@@ -3837,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>1996.0</v>
+        <v>1746.0</v>
       </c>
       <c r="E198" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="199">
@@ -3854,10 +4382,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>1997.0</v>
+        <v>1747.0</v>
       </c>
       <c r="E199" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="200">
@@ -3871,10 +4399,10 @@
         <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>1998.0</v>
+        <v>1748.0</v>
       </c>
       <c r="E200" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
     </row>
     <row r="201">
@@ -3888,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>1999.0</v>
+        <v>1749.0</v>
       </c>
       <c r="E201" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="202">
@@ -3905,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>2000.0</v>
+        <v>1750.0</v>
       </c>
       <c r="E202" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="203">
@@ -3922,10 +4450,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>2001.0</v>
+        <v>1751.0</v>
       </c>
       <c r="E203" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
     </row>
     <row r="204">
@@ -3939,10 +4467,10 @@
         <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>2002.0</v>
+        <v>1752.0</v>
       </c>
       <c r="E204" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
     </row>
     <row r="205">
@@ -3956,10 +4484,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>2003.0</v>
+        <v>1753.0</v>
       </c>
       <c r="E205" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="206">
@@ -3973,10 +4501,10 @@
         <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>2004.0</v>
+        <v>1754.0</v>
       </c>
       <c r="E206" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="207">
@@ -3990,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>2005.0</v>
+        <v>1755.0</v>
       </c>
       <c r="E207" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
     <row r="208">
@@ -4007,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>2006.0</v>
+        <v>1756.0</v>
       </c>
       <c r="E208" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
     </row>
     <row r="209">
@@ -4024,10 +4552,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>2007.0</v>
+        <v>1757.0</v>
       </c>
       <c r="E209" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
     </row>
     <row r="210">
@@ -4041,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>2008.0</v>
+        <v>1758.0</v>
       </c>
       <c r="E210" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="211">
@@ -4058,10 +4586,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>2009.0</v>
+        <v>1759.0</v>
       </c>
       <c r="E211" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="212">
@@ -4075,10 +4603,4362 @@
         <v>6</v>
       </c>
       <c r="D212" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1761.0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1762.0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1763.0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1764.0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1765.0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1766.0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1767.0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1768.0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1769.0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1770.0</v>
+      </c>
+      <c r="E222" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1771.0</v>
+      </c>
+      <c r="E223" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1772.0</v>
+      </c>
+      <c r="E224" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1773.0</v>
+      </c>
+      <c r="E225" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1774.0</v>
+      </c>
+      <c r="E226" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1775.0</v>
+      </c>
+      <c r="E227" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1776.0</v>
+      </c>
+      <c r="E228" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1777.0</v>
+      </c>
+      <c r="E229" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1778.0</v>
+      </c>
+      <c r="E230" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="E231" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="E232" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1781.0</v>
+      </c>
+      <c r="E233" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1782.0</v>
+      </c>
+      <c r="E234" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1783.0</v>
+      </c>
+      <c r="E235" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1784.0</v>
+      </c>
+      <c r="E236" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1785.0</v>
+      </c>
+      <c r="E237" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1786.0</v>
+      </c>
+      <c r="E238" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1787.0</v>
+      </c>
+      <c r="E239" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1788.0</v>
+      </c>
+      <c r="E240" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1789.0</v>
+      </c>
+      <c r="E241" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1790.0</v>
+      </c>
+      <c r="E242" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1791.0</v>
+      </c>
+      <c r="E243" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1792.0</v>
+      </c>
+      <c r="E244" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1793.0</v>
+      </c>
+      <c r="E245" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1794.0</v>
+      </c>
+      <c r="E246" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1795.0</v>
+      </c>
+      <c r="E247" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1796.0</v>
+      </c>
+      <c r="E248" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1797.0</v>
+      </c>
+      <c r="E249" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1798.0</v>
+      </c>
+      <c r="E250" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="E251" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="E252" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="E253" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1802.0</v>
+      </c>
+      <c r="E254" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1803.0</v>
+      </c>
+      <c r="E255" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1804.0</v>
+      </c>
+      <c r="E256" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1805.0</v>
+      </c>
+      <c r="E257" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1806.0</v>
+      </c>
+      <c r="E258" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1807.0</v>
+      </c>
+      <c r="E259" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1808.0</v>
+      </c>
+      <c r="E260" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1809.0</v>
+      </c>
+      <c r="E261" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1810.0</v>
+      </c>
+      <c r="E262" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1811.0</v>
+      </c>
+      <c r="E263" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1812.0</v>
+      </c>
+      <c r="E264" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1813.0</v>
+      </c>
+      <c r="E265" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1814.0</v>
+      </c>
+      <c r="E266" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1815.0</v>
+      </c>
+      <c r="E267" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1816.0</v>
+      </c>
+      <c r="E268" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1817.0</v>
+      </c>
+      <c r="E269" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1818.0</v>
+      </c>
+      <c r="E270" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="E271" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="E272" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1821.0</v>
+      </c>
+      <c r="E273" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1822.0</v>
+      </c>
+      <c r="E274" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1823.0</v>
+      </c>
+      <c r="E275" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1824.0</v>
+      </c>
+      <c r="E276" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1825.0</v>
+      </c>
+      <c r="E277" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1826.0</v>
+      </c>
+      <c r="E278" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1827.0</v>
+      </c>
+      <c r="E279" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1828.0</v>
+      </c>
+      <c r="E280" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1829.0</v>
+      </c>
+      <c r="E281" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1830.0</v>
+      </c>
+      <c r="E282" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1831.0</v>
+      </c>
+      <c r="E283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1832.0</v>
+      </c>
+      <c r="E284" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1833.0</v>
+      </c>
+      <c r="E285" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1834.0</v>
+      </c>
+      <c r="E286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1835.0</v>
+      </c>
+      <c r="E287" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1836.0</v>
+      </c>
+      <c r="E288" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1837.0</v>
+      </c>
+      <c r="E289" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1838.0</v>
+      </c>
+      <c r="E290" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="E291" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="E292" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1841.0</v>
+      </c>
+      <c r="E293" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1842.0</v>
+      </c>
+      <c r="E294" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1843.0</v>
+      </c>
+      <c r="E295" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1844.0</v>
+      </c>
+      <c r="E296" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1845.0</v>
+      </c>
+      <c r="E297" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1846.0</v>
+      </c>
+      <c r="E298" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1847.0</v>
+      </c>
+      <c r="E299" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1848.0</v>
+      </c>
+      <c r="E300" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1849.0</v>
+      </c>
+      <c r="E301" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1850.0</v>
+      </c>
+      <c r="E302" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1851.0</v>
+      </c>
+      <c r="E303" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1852.0</v>
+      </c>
+      <c r="E304" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1853.0</v>
+      </c>
+      <c r="E305" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1854.0</v>
+      </c>
+      <c r="E306" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1855.0</v>
+      </c>
+      <c r="E307" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1856.0</v>
+      </c>
+      <c r="E308" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1857.0</v>
+      </c>
+      <c r="E309" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1858.0</v>
+      </c>
+      <c r="E310" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="E311" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="E312" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1861.0</v>
+      </c>
+      <c r="E313" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1862.0</v>
+      </c>
+      <c r="E314" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1863.0</v>
+      </c>
+      <c r="E315" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1864.0</v>
+      </c>
+      <c r="E316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1865.0</v>
+      </c>
+      <c r="E317" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1866.0</v>
+      </c>
+      <c r="E318" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1867.0</v>
+      </c>
+      <c r="E319" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1868.0</v>
+      </c>
+      <c r="E320" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1869.0</v>
+      </c>
+      <c r="E321" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1870.0</v>
+      </c>
+      <c r="E322" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" t="n">
+        <v>1871.0</v>
+      </c>
+      <c r="E323" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1872.0</v>
+      </c>
+      <c r="E324" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1873.0</v>
+      </c>
+      <c r="E325" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B326" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1874.0</v>
+      </c>
+      <c r="E326" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1875.0</v>
+      </c>
+      <c r="E327" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1876.0</v>
+      </c>
+      <c r="E328" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1877.0</v>
+      </c>
+      <c r="E329" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1878.0</v>
+      </c>
+      <c r="E330" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B331" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="E331" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B332" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="E332" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B333" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1881.0</v>
+      </c>
+      <c r="E333" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B334" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1882.0</v>
+      </c>
+      <c r="E334" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B335" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1883.0</v>
+      </c>
+      <c r="E335" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B336" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1884.0</v>
+      </c>
+      <c r="E336" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B337" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1885.0</v>
+      </c>
+      <c r="E337" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1886.0</v>
+      </c>
+      <c r="E338" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1887.0</v>
+      </c>
+      <c r="E339" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B340" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" t="n">
+        <v>1888.0</v>
+      </c>
+      <c r="E340" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1889.0</v>
+      </c>
+      <c r="E341" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B342" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1890.0</v>
+      </c>
+      <c r="E342" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B343" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1891.0</v>
+      </c>
+      <c r="E343" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B344" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1892.0</v>
+      </c>
+      <c r="E344" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B345" t="s">
+        <v>5</v>
+      </c>
+      <c r="C345" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1893.0</v>
+      </c>
+      <c r="E345" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B346" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1894.0</v>
+      </c>
+      <c r="E346" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B347" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1895.0</v>
+      </c>
+      <c r="E347" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1896.0</v>
+      </c>
+      <c r="E348" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B349" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1897.0</v>
+      </c>
+      <c r="E349" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1898.0</v>
+      </c>
+      <c r="E350" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B351" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="E351" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B352" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="E352" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B353" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1901.0</v>
+      </c>
+      <c r="E353" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1902.0</v>
+      </c>
+      <c r="E354" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B355" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1903.0</v>
+      </c>
+      <c r="E355" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1904.0</v>
+      </c>
+      <c r="E356" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1905.0</v>
+      </c>
+      <c r="E357" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B358" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358" t="n">
+        <v>1906.0</v>
+      </c>
+      <c r="E358" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1907.0</v>
+      </c>
+      <c r="E359" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" t="n">
+        <v>1908.0</v>
+      </c>
+      <c r="E360" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" t="n">
+        <v>1909.0</v>
+      </c>
+      <c r="E361" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B362" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="E362" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" t="n">
+        <v>1911.0</v>
+      </c>
+      <c r="E363" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364" t="n">
+        <v>1912.0</v>
+      </c>
+      <c r="E364" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B365" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365" t="n">
+        <v>1913.0</v>
+      </c>
+      <c r="E365" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" t="n">
+        <v>1914.0</v>
+      </c>
+      <c r="E366" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" t="n">
+        <v>1915.0</v>
+      </c>
+      <c r="E367" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B368" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1916.0</v>
+      </c>
+      <c r="E368" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B369" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369" t="n">
+        <v>1917.0</v>
+      </c>
+      <c r="E369" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B370" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1918.0</v>
+      </c>
+      <c r="E370" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="E371" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="E372" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B373" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" t="s">
+        <v>6</v>
+      </c>
+      <c r="D373" t="n">
+        <v>1921.0</v>
+      </c>
+      <c r="E373" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1922.0</v>
+      </c>
+      <c r="E374" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B375" t="s">
+        <v>5</v>
+      </c>
+      <c r="C375" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375" t="n">
+        <v>1923.0</v>
+      </c>
+      <c r="E375" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B376" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376" t="n">
+        <v>1924.0</v>
+      </c>
+      <c r="E376" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B377" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377" t="s">
+        <v>6</v>
+      </c>
+      <c r="D377" t="n">
+        <v>1925.0</v>
+      </c>
+      <c r="E377" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378" t="n">
+        <v>1926.0</v>
+      </c>
+      <c r="E378" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B379" t="s">
+        <v>5</v>
+      </c>
+      <c r="C379" t="s">
+        <v>6</v>
+      </c>
+      <c r="D379" t="n">
+        <v>1927.0</v>
+      </c>
+      <c r="E379" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B380" t="s">
+        <v>5</v>
+      </c>
+      <c r="C380" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1928.0</v>
+      </c>
+      <c r="E380" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B381" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381" t="n">
+        <v>1929.0</v>
+      </c>
+      <c r="E381" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B382" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="E382" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B383" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1931.0</v>
+      </c>
+      <c r="E383" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B384" t="s">
+        <v>5</v>
+      </c>
+      <c r="C384" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1932.0</v>
+      </c>
+      <c r="E384" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B385" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385" t="n">
+        <v>1933.0</v>
+      </c>
+      <c r="E385" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386" t="s">
+        <v>6</v>
+      </c>
+      <c r="D386" t="n">
+        <v>1934.0</v>
+      </c>
+      <c r="E386" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" t="n">
+        <v>1935.0</v>
+      </c>
+      <c r="E387" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388" t="n">
+        <v>1936.0</v>
+      </c>
+      <c r="E388" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" t="s">
+        <v>6</v>
+      </c>
+      <c r="D389" t="n">
+        <v>1937.0</v>
+      </c>
+      <c r="E389" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390" t="s">
+        <v>6</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="E390" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B391" t="s">
+        <v>5</v>
+      </c>
+      <c r="C391" t="s">
+        <v>6</v>
+      </c>
+      <c r="D391" t="n">
+        <v>1939.0</v>
+      </c>
+      <c r="E391" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B392" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392" t="s">
+        <v>6</v>
+      </c>
+      <c r="D392" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="E392" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393" t="s">
+        <v>6</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1941.0</v>
+      </c>
+      <c r="E393" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394" t="n">
+        <v>1942.0</v>
+      </c>
+      <c r="E394" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B395" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" t="s">
+        <v>6</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1943.0</v>
+      </c>
+      <c r="E395" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396" t="s">
+        <v>6</v>
+      </c>
+      <c r="D396" t="n">
+        <v>1944.0</v>
+      </c>
+      <c r="E396" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397" t="s">
+        <v>6</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="E397" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B398" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398" t="s">
+        <v>6</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="E398" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B399" t="s">
+        <v>5</v>
+      </c>
+      <c r="C399" t="s">
+        <v>6</v>
+      </c>
+      <c r="D399" t="n">
+        <v>1947.0</v>
+      </c>
+      <c r="E399" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B400" t="s">
+        <v>5</v>
+      </c>
+      <c r="C400" t="s">
+        <v>6</v>
+      </c>
+      <c r="D400" t="n">
+        <v>1948.0</v>
+      </c>
+      <c r="E400" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B401" t="s">
+        <v>5</v>
+      </c>
+      <c r="C401" t="s">
+        <v>6</v>
+      </c>
+      <c r="D401" t="n">
+        <v>1949.0</v>
+      </c>
+      <c r="E401" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402" t="s">
+        <v>6</v>
+      </c>
+      <c r="D402" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="E402" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B403" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403" t="n">
+        <v>1951.0</v>
+      </c>
+      <c r="E403" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B404" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404" t="s">
+        <v>6</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1952.0</v>
+      </c>
+      <c r="E404" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+      <c r="C405" t="s">
+        <v>6</v>
+      </c>
+      <c r="D405" t="n">
+        <v>1953.0</v>
+      </c>
+      <c r="E405" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B406" t="s">
+        <v>5</v>
+      </c>
+      <c r="C406" t="s">
+        <v>6</v>
+      </c>
+      <c r="D406" t="n">
+        <v>1954.0</v>
+      </c>
+      <c r="E406" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+      <c r="C407" t="s">
+        <v>6</v>
+      </c>
+      <c r="D407" t="n">
+        <v>1955.0</v>
+      </c>
+      <c r="E407" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+      <c r="C408" t="s">
+        <v>6</v>
+      </c>
+      <c r="D408" t="n">
+        <v>1956.0</v>
+      </c>
+      <c r="E408" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B409" t="s">
+        <v>5</v>
+      </c>
+      <c r="C409" t="s">
+        <v>6</v>
+      </c>
+      <c r="D409" t="n">
+        <v>1957.0</v>
+      </c>
+      <c r="E409" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B410" t="s">
+        <v>5</v>
+      </c>
+      <c r="C410" t="s">
+        <v>6</v>
+      </c>
+      <c r="D410" t="n">
+        <v>1958.0</v>
+      </c>
+      <c r="E410" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B411" t="s">
+        <v>5</v>
+      </c>
+      <c r="C411" t="s">
+        <v>6</v>
+      </c>
+      <c r="D411" t="n">
+        <v>1959.0</v>
+      </c>
+      <c r="E411" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B412" t="s">
+        <v>5</v>
+      </c>
+      <c r="C412" t="s">
+        <v>6</v>
+      </c>
+      <c r="D412" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="E412" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413" t="n">
+        <v>1961.0</v>
+      </c>
+      <c r="E413" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+      <c r="C414" t="s">
+        <v>6</v>
+      </c>
+      <c r="D414" t="n">
+        <v>1962.0</v>
+      </c>
+      <c r="E414" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
+      <c r="C415" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" t="n">
+        <v>1963.0</v>
+      </c>
+      <c r="E415" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416" t="s">
+        <v>6</v>
+      </c>
+      <c r="D416" t="n">
+        <v>1964.0</v>
+      </c>
+      <c r="E416" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B417" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417" t="s">
+        <v>6</v>
+      </c>
+      <c r="D417" t="n">
+        <v>1965.0</v>
+      </c>
+      <c r="E417" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B418" t="s">
+        <v>5</v>
+      </c>
+      <c r="C418" t="s">
+        <v>6</v>
+      </c>
+      <c r="D418" t="n">
+        <v>1966.0</v>
+      </c>
+      <c r="E418" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B419" t="s">
+        <v>5</v>
+      </c>
+      <c r="C419" t="s">
+        <v>6</v>
+      </c>
+      <c r="D419" t="n">
+        <v>1967.0</v>
+      </c>
+      <c r="E419" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B420" t="s">
+        <v>5</v>
+      </c>
+      <c r="C420" t="s">
+        <v>6</v>
+      </c>
+      <c r="D420" t="n">
+        <v>1968.0</v>
+      </c>
+      <c r="E420" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B421" t="s">
+        <v>5</v>
+      </c>
+      <c r="C421" t="s">
+        <v>6</v>
+      </c>
+      <c r="D421" t="n">
+        <v>1969.0</v>
+      </c>
+      <c r="E421" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B422" t="s">
+        <v>5</v>
+      </c>
+      <c r="C422" t="s">
+        <v>6</v>
+      </c>
+      <c r="D422" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="E422" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B423" t="s">
+        <v>5</v>
+      </c>
+      <c r="C423" t="s">
+        <v>6</v>
+      </c>
+      <c r="D423" t="n">
+        <v>1971.0</v>
+      </c>
+      <c r="E423" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B424" t="s">
+        <v>5</v>
+      </c>
+      <c r="C424" t="s">
+        <v>6</v>
+      </c>
+      <c r="D424" t="n">
+        <v>1972.0</v>
+      </c>
+      <c r="E424" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B425" t="s">
+        <v>5</v>
+      </c>
+      <c r="C425" t="s">
+        <v>6</v>
+      </c>
+      <c r="D425" t="n">
+        <v>1973.0</v>
+      </c>
+      <c r="E425" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B426" t="s">
+        <v>5</v>
+      </c>
+      <c r="C426" t="s">
+        <v>6</v>
+      </c>
+      <c r="D426" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="E426" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B427" t="s">
+        <v>5</v>
+      </c>
+      <c r="C427" t="s">
+        <v>6</v>
+      </c>
+      <c r="D427" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="E427" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B428" t="s">
+        <v>5</v>
+      </c>
+      <c r="C428" t="s">
+        <v>6</v>
+      </c>
+      <c r="D428" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="E428" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B429" t="s">
+        <v>5</v>
+      </c>
+      <c r="C429" t="s">
+        <v>6</v>
+      </c>
+      <c r="D429" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="E429" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B430" t="s">
+        <v>5</v>
+      </c>
+      <c r="C430" t="s">
+        <v>6</v>
+      </c>
+      <c r="D430" t="n">
+        <v>1978.0</v>
+      </c>
+      <c r="E430" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B431" t="s">
+        <v>5</v>
+      </c>
+      <c r="C431" t="s">
+        <v>6</v>
+      </c>
+      <c r="D431" t="n">
+        <v>1979.0</v>
+      </c>
+      <c r="E431" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B432" t="s">
+        <v>5</v>
+      </c>
+      <c r="C432" t="s">
+        <v>6</v>
+      </c>
+      <c r="D432" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="E432" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B433" t="s">
+        <v>5</v>
+      </c>
+      <c r="C433" t="s">
+        <v>6</v>
+      </c>
+      <c r="D433" t="n">
+        <v>1981.0</v>
+      </c>
+      <c r="E433" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B434" t="s">
+        <v>5</v>
+      </c>
+      <c r="C434" t="s">
+        <v>6</v>
+      </c>
+      <c r="D434" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="E434" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B435" t="s">
+        <v>5</v>
+      </c>
+      <c r="C435" t="s">
+        <v>6</v>
+      </c>
+      <c r="D435" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="E435" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B436" t="s">
+        <v>5</v>
+      </c>
+      <c r="C436" t="s">
+        <v>6</v>
+      </c>
+      <c r="D436" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="E436" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B437" t="s">
+        <v>5</v>
+      </c>
+      <c r="C437" t="s">
+        <v>6</v>
+      </c>
+      <c r="D437" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="E437" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B438" t="s">
+        <v>5</v>
+      </c>
+      <c r="C438" t="s">
+        <v>6</v>
+      </c>
+      <c r="D438" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="E438" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B439" t="s">
+        <v>5</v>
+      </c>
+      <c r="C439" t="s">
+        <v>6</v>
+      </c>
+      <c r="D439" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="E439" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B440" t="s">
+        <v>5</v>
+      </c>
+      <c r="C440" t="s">
+        <v>6</v>
+      </c>
+      <c r="D440" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="E440" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B441" t="s">
+        <v>5</v>
+      </c>
+      <c r="C441" t="s">
+        <v>6</v>
+      </c>
+      <c r="D441" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="E441" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B442" t="s">
+        <v>5</v>
+      </c>
+      <c r="C442" t="s">
+        <v>6</v>
+      </c>
+      <c r="D442" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="E442" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B443" t="s">
+        <v>5</v>
+      </c>
+      <c r="C443" t="s">
+        <v>6</v>
+      </c>
+      <c r="D443" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="E443" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B444" t="s">
+        <v>5</v>
+      </c>
+      <c r="C444" t="s">
+        <v>6</v>
+      </c>
+      <c r="D444" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="E444" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B445" t="s">
+        <v>5</v>
+      </c>
+      <c r="C445" t="s">
+        <v>6</v>
+      </c>
+      <c r="D445" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="E445" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B446" t="s">
+        <v>5</v>
+      </c>
+      <c r="C446" t="s">
+        <v>6</v>
+      </c>
+      <c r="D446" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="E446" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B447" t="s">
+        <v>5</v>
+      </c>
+      <c r="C447" t="s">
+        <v>6</v>
+      </c>
+      <c r="D447" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="E447" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B448" t="s">
+        <v>5</v>
+      </c>
+      <c r="C448" t="s">
+        <v>6</v>
+      </c>
+      <c r="D448" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="E448" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B449" t="s">
+        <v>5</v>
+      </c>
+      <c r="C449" t="s">
+        <v>6</v>
+      </c>
+      <c r="D449" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="E449" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B450" t="s">
+        <v>5</v>
+      </c>
+      <c r="C450" t="s">
+        <v>6</v>
+      </c>
+      <c r="D450" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="E450" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B451" t="s">
+        <v>5</v>
+      </c>
+      <c r="C451" t="s">
+        <v>6</v>
+      </c>
+      <c r="D451" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="E451" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B452" t="s">
+        <v>5</v>
+      </c>
+      <c r="C452" t="s">
+        <v>6</v>
+      </c>
+      <c r="D452" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E452" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B453" t="s">
+        <v>5</v>
+      </c>
+      <c r="C453" t="s">
+        <v>6</v>
+      </c>
+      <c r="D453" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="E453" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B454" t="s">
+        <v>5</v>
+      </c>
+      <c r="C454" t="s">
+        <v>6</v>
+      </c>
+      <c r="D454" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E454" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B455" t="s">
+        <v>5</v>
+      </c>
+      <c r="C455" t="s">
+        <v>6</v>
+      </c>
+      <c r="D455" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E455" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B456" t="s">
+        <v>5</v>
+      </c>
+      <c r="C456" t="s">
+        <v>6</v>
+      </c>
+      <c r="D456" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="E456" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B457" t="s">
+        <v>5</v>
+      </c>
+      <c r="C457" t="s">
+        <v>6</v>
+      </c>
+      <c r="D457" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="E457" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B458" t="s">
+        <v>5</v>
+      </c>
+      <c r="C458" t="s">
+        <v>6</v>
+      </c>
+      <c r="D458" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E458" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B459" t="s">
+        <v>5</v>
+      </c>
+      <c r="C459" t="s">
+        <v>6</v>
+      </c>
+      <c r="D459" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="E459" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B460" t="s">
+        <v>5</v>
+      </c>
+      <c r="C460" t="s">
+        <v>6</v>
+      </c>
+      <c r="D460" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="E460" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B461" t="s">
+        <v>5</v>
+      </c>
+      <c r="C461" t="s">
+        <v>6</v>
+      </c>
+      <c r="D461" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E461" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B462" t="s">
+        <v>5</v>
+      </c>
+      <c r="C462" t="s">
+        <v>6</v>
+      </c>
+      <c r="D462" t="n">
         <v>2010.0</v>
       </c>
-      <c r="E212" t="s">
-        <v>125</v>
+      <c r="E462" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B463" t="s">
+        <v>5</v>
+      </c>
+      <c r="C463" t="s">
+        <v>6</v>
+      </c>
+      <c r="D463" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E463" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B464" t="s">
+        <v>5</v>
+      </c>
+      <c r="C464" t="s">
+        <v>6</v>
+      </c>
+      <c r="D464" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E464" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B465" t="s">
+        <v>5</v>
+      </c>
+      <c r="C465" t="s">
+        <v>6</v>
+      </c>
+      <c r="D465" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E465" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B466" t="s">
+        <v>5</v>
+      </c>
+      <c r="C466" t="s">
+        <v>6</v>
+      </c>
+      <c r="D466" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E466" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B467" t="s">
+        <v>5</v>
+      </c>
+      <c r="C467" t="s">
+        <v>6</v>
+      </c>
+      <c r="D467" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E467" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B468" t="s">
+        <v>5</v>
+      </c>
+      <c r="C468" t="s">
+        <v>6</v>
+      </c>
+      <c r="D468" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E468" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4096,50 +8976,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
